--- a/exec/symlex_vpn_ android/report_summary.xlsx
+++ b/exec/symlex_vpn_ android/report_summary.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\exec\symlex_vpn_ android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\exec\symlex_vpn_ android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D900A1-5D4F-4B9E-B00F-5D3221515ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F10258E-F5F7-439C-8B48-9ADD8F9BC66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my_account" sheetId="2" r:id="rId1"/>
     <sheet name="high_speed_server" sheetId="1" r:id="rId2"/>
+    <sheet name="connection_page" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Execute</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>TC_SYM_MA_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (11-06-24)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -481,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B2A24E-4801-4158-9407-5B3E1CB81B5F}">
   <dimension ref="E2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -550,7 +557,7 @@
   <dimension ref="E2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,4 +616,73 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B38F2E4-6B99-4233-9A44-9539875593F9}">
+  <dimension ref="D2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>